--- a/data/unchecked/manual_collect/china/neimenggu/neimengguCaseStatistics_20200225.xlsx
+++ b/data/unchecked/manual_collect/china/neimenggu/neimengguCaseStatistics_20200225.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\超级大仙女\Desktop\数据收集\20200225(今天)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C058F6D-739E-4DD8-B3E3-CA95872B6F72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3382BCDC-411E-4EB2-8F2D-9C8868403920}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12233,8 +12233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y17" sqref="Y17"/>
+    <sheetView tabSelected="1" topLeftCell="M44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U44" sqref="U44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="16.5"/>
@@ -12418,7 +12418,9 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
+      <c r="K2" s="12">
+        <v>1</v>
+      </c>
       <c r="L2" s="12"/>
       <c r="M2" s="12">
         <v>75</v>
